--- a/grades/grades-2020.xlsx
+++ b/grades/grades-2020.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B84E250-1CDD-47BA-ABC5-A68E7CB9D2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -64,12 +65,36 @@
   </si>
   <si>
     <t>stewart</t>
+  </si>
+  <si>
+    <t>elise</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>zach</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>krissa</t>
+  </si>
+  <si>
+    <t>katie</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>matt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -405,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -413,7 +438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -421,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -429,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -437,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -445,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -453,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -461,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -469,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -477,12 +502,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
